--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/0_fold/103.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/0_fold/103.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-9.110241375115629</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8.146323036541348</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1.364373835530418</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-7.657008580369087</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-9.17733142581222</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-3.795925634725305</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-9.402511702673335</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8.039396415456958</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.15070931465239</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-8.267704999621488</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-9.060244178528718</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-3.882920150406274</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-9.862114823169344</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7.871251365888844</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.8147159849311656</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-8.779467847228316</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-9.039286483237891</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-4.361452887016845</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-10.47656378990035</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7.646456216855562</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.365522441482393</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-9.54994241489335</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-8.999598986786065</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-4.854002473440691</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-11.21378550885248</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7.376744857319711</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-0.1734242476223494</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-10.17374423792395</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-8.860978328866789</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-5.359863763477946</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-12.04116543281674</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>7.074049266009333</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-0.7782811844012625</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-10.78413272094383</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-8.796131243473436</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-5.856313172547053</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-12.93134184793453</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.748379681166625</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-1.429045560047678</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-11.35155051410493</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-8.697095364448039</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-6.304815950570896</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-13.86011098209509</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.408591013212796</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-2.108023182288633</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-11.86303712479728</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-8.610484582280934</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-6.850145564527343</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-14.80919700667865</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>6.061369444142978</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-2.801853487982741</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-12.2969781465823</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-8.541367262926149</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-6.999183014159792</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-15.76717617475782</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.71089433307747</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-3.502185135294262</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-12.73273055797038</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-8.476226935472205</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-7.105362141240836</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-16.72496461592911</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5.360488999139111</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-4.20237735150538</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-13.14983018492086</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-8.373166433420307</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-7.100436049478401</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-17.67948845907338</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5.01127801304696</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-4.900182980001166</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-13.57273531554918</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-8.29144053382751</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-6.943754550195774</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-18.62395333531348</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.665747083536844</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-5.590634990488358</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-14.02598122202889</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-8.087909006224866</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-6.48535655155505</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-19.55702473525028</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.324384438688732</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-6.272757788510417</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-14.78667428583736</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-7.97564037212345</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-5.886770191508348</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-20.466163804158</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.991777397986259</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-6.937384831538974</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-15.28838392114716</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-7.761364505122795</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-5.326844382269255</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-21.34577150275049</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.669974360790359</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-7.580422936196658</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-16.23555501611748</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-7.5110956602868</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-4.62457173593258</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-22.17507165631111</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.366576256624294</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-8.186683658779319</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-16.79450456288424</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-7.273536042328256</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-4.172808070552555</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-22.94437510753198</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3.085127847834436</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-8.749083730960669</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-17.66994915804707</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-6.918694510746553</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-3.617603099252463</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-23.62879303154288</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.834734670273058</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-9.249428151949669</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-18.24533253698766</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-6.650108805899855</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-3.182157112835506</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-24.22067974740689</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.618193883800031</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-9.682127538903975</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-19.14406707397194</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-6.388401035598601</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-2.920567735958914</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-24.69878560146897</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.443279639433468</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-10.03164731085888</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-19.69358380938071</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-6.180045924609455</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-2.73112507801966</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-25.06394917774695</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2.309685142582648</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-10.2986005155154</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-20.21387830201799</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-5.9156153106552</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-2.71472794596365</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-25.30389813584306</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2.221900208900419</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-10.47401544591632</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-20.64867067691645</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-5.823785813850458</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-2.819026683178389</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-25.4315520853463</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2.175198220359472</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-10.56733699582087</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-21.06334304179882</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-5.680578485621883</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-2.998289413584384</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-25.44264789804465</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2.171138835440264</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-10.57544860100418</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-21.17307702395269</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-5.610398370889306</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-3.075733005384555</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-25.35807433028331</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2.202079936814935</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-10.51362100808474</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-21.30401784988448</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-5.676442447179705</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-3.389897155970312</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-25.18027033962336</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2.267129235850724</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-10.38363721947363</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-21.29887803188577</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-5.67086919129367</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-3.591701390953205</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-24.93271675489011</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2.357696309744422</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-10.20266291901809</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-21.41759650647086</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-5.688897779448198</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-3.814275988649486</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-24.62254038095638</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2.471173828595164</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-9.975908164684876</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-21.25367480434121</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-5.751348397945253</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-4.024578394031687</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-24.27322187843316</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2.598971431140677</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-9.720538517347967</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-21.1634630736344</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-5.817756127525481</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-4.170345024671337</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-23.89269228628831</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2.738187559752422</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-9.442351971129074</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-20.9385247127254</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-5.947663188734707</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-4.10937139692904</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-23.4995280992473</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.882026034232474</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-9.154928891432661</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-20.65251535134896</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-5.962972246705846</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-4.218821343002885</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-23.09556343310202</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.029815846319609</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-8.85961011047792</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-20.27576895628082</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-6.046444344783743</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-4.079715529988249</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-22.69255500242592</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3.177255821225066</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-8.564990386437634</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-20.19918793233711</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-5.965998272828272</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-3.961952804065294</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-22.28501446282125</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.326353860765983</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-8.267057459545454</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-19.62839189756629</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-6.118976194572868</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-3.810389408186381</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-21.87731172417242</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3.475511240561796</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-7.9690059568767</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-19.37136929831295</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-6.201661343618106</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-3.636747984106068</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-21.45429901447377</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>3.630269748213921</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-7.659762084266221</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-18.99713620631907</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-6.14276690638127</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-3.514992740262752</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-21.01329512518281</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.791610299480272</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-7.337365741476011</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-18.68686328120952</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-6.243217636930647</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-3.333531807618681</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-20.53426272091882</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3.966863520722056</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-6.987168614051551</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-18.35219093814665</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-6.195065053989613</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-2.943489953272828</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-20.01817294551377</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4.155674120557471</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-6.609880657681098</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-17.82043940626997</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-6.290932013515601</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-2.798266252101619</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-19.44903533233868</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.363892185036942</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-6.193812025436142</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-17.56133370897309</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-6.207357197879755</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-2.529790940503343</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-18.83627572510266</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.588069284663344</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-5.745853489968176</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-17.15027959482285</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-6.311935683197284</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-2.091093998366822</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-18.16873995893333</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.832286152403272</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-5.257850787677583</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-16.75037458367949</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-6.344476025697755</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-1.831070509530306</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-17.46384405529914</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>5.090171165300961</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-4.742535918811374</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-16.26076503091818</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-6.49097072996434</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-1.630570629489886</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-16.71259092028226</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>5.365015895443984</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-4.193331548689991</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-15.86205553691285</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-6.468906335823373</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-1.341778499917103</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-15.93722506726833</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>5.648682224009702</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-3.626499551498301</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-15.56372872623554</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-6.557550345780649</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-1.084754365339167</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-15.13155813194021</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>5.943434153957305</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-3.037515917194318</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-15.18525245409647</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-6.674388254475908</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-0.9069151695150578</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-14.31984420476166</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>6.240398365978473</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-2.444111623334259</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-14.68051326967554</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-6.701813014080392</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-0.6415252863593831</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-13.50025356959225</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>6.54024425872915</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-1.844949054068604</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-14.34589526830077</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-6.753681239006682</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-0.4732237722339145</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-12.69646687899382</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>6.834308304219108</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-1.257339974590833</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-14.11001158571522</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-6.824981720651546</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-0.3440164903816993</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-11.90864780455599</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>7.122530623465101</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-0.6814040371833812</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-13.55516483639942</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-6.863599794786357</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-0.3640850174407613</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-11.15645580907245</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>7.397718834173557</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-0.1315133121608512</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-13.22421942744486</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-6.873278853704369</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-0.4879259049738178</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-10.44074504141415</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>7.659560447377711</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.3917077740739892</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-12.88212038700941</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-6.913496505293986</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-0.4818477433637159</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-9.776928307875426</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>7.902416713115321</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.8769916737690964</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-12.58629329398434</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-6.91184059885579</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-0.4800534276814309</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-9.165887419762354</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>8.125965022162996</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1.323693737870308</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-12.22582223449977</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-6.936620795526835</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-0.7805152302801446</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-8.61793416454109</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>8.326432823949798</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>1.724275523639482</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-11.89279372750169</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-7.033708768604549</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-0.894258953918424</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-8.134527866481449</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>8.503286227079561</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>2.077670190581654</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-11.6352141259454</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-7.095966791680453</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-1.155368301691821</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-7.720967790775022</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>8.654586504053322</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>2.380003705476861</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-11.20052590594912</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-7.0242848468466</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-1.169775795878729</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-7.379642606523102</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>8.779459764189038</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>2.629529829343788</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-11.21243126411528</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-7.135271168208483</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-1.388573061114701</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-7.111434681988221</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>8.877583194501714</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>2.825603505964692</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-10.75577088823379</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-7.135939246518841</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-1.580382759114535</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-6.918657115704742</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>8.948110551677562</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>2.966533742298243</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-10.60501798851844</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-7.218323698196863</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-1.855542062156599</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-6.798026190110355</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8.992243178413485</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>3.054721103415526</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-10.49826374226162</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-7.165356643910759</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-2.006079188918338</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-6.750205561824465</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>9.00973827702124</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>3.089680422468445</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-10.30603002063602</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-7.30363021588826</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-2.075183516505085</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-6.768234732014426</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>9.003142334609032</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>3.076500179223582</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-10.12992219495172</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-7.317957244303379</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-2.200911414995526</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-6.851251147653449</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>8.972770914790283</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>3.015810943950388</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-9.977964721150338</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-7.377431952905876</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-2.355063657486149</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-6.990795607280949</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>8.921718802577251</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>2.913796824499256</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-10.1378198536211</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-7.458983895344085</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-2.465195575941084</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-7.185615023534588</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>8.850444437930975</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>2.771373891663721</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-9.968079062391594</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-7.530058646871685</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-2.458303020128322</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-7.426171130259023</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>8.762437379916571</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>2.595515104639191</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-10.16513108036136</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-7.55823556407791</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-2.4640335744568</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-7.710620817027813</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>8.658371927467607</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>2.387567871181635</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-10.30331746470542</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-7.609557480702056</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-2.527268304802419</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-8.029967707299836</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8.541539390220553</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>2.154109001531626</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-10.19985089057817</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-7.667293446126077</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-2.476563989322941</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-8.382510083518007</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>8.412562338759082</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>1.896382538043864</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-10.35394580411118</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-7.739814527138965</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-2.243014933163977</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-8.761433356092553</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>8.273933879533658</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>1.619370293384202</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-10.56305714836337</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-7.758917093631223</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-2.227660622952837</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-9.167191234122946</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>8.125488023812654</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>1.322740583052994</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-10.774197248971</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-7.956849271774644</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-2.152928367949329</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-9.597437322531503</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>7.968083196395749</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>1.008208741563509</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-11.07723367261629</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-7.930760668790876</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-1.932737363041324</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-10.0551916897625</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>7.800614510184456</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.6735669448011427</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-11.55118829073307</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-7.980886422885379</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-1.952292755541799</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-10.5441560059568</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>7.621727715214915</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.3161090830362279</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-11.88398131708276</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-8.062368782461752</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-1.706855530351312</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-11.07127484743609</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>7.428882149603504</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-0.06924168332994102</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-12.43569436238525</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-8.15402515047931</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-1.513042952300219</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-11.64660266046859</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>7.218399410635448</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-0.4898356674904538</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-12.96012788026554</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-8.192985754535178</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-1.515982716739092</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-12.27918253675834</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>6.986971098008369</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-0.952283830853342</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-13.41828718104358</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-8.291346928310995</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-1.277676406640195</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-12.98317121902765</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>6.729417990562501</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-1.466935474616007</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-14.14468611119196</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-8.325284726619989</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-1.135938709921839</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-13.76538008291496</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>6.443248157666222</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-2.038770061881904</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-14.92102958117093</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-8.506518260474076</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-1.02232740810513</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-14.64296735590775</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>6.122184289869874</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-2.680331132345473</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-15.71578582646509</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-8.546696564612061</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-1.024125034332954</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-15.61706716226599</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>5.76581146966875</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-3.392447788703011</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-16.714074336034</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-8.685391361413885</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-0.8640965735101243</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-16.70685041615253</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>5.36711604948645</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-4.189134947294541</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-17.71740756564745</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-8.856301780694285</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-0.8933684171683601</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-17.90498449220519</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>4.92878065831307</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-5.065032084874776</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-18.69639119052166</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-8.919166997076442</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-0.7984981136494657</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-19.23198783911948</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>4.443298655268455</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-6.035139234277415</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-19.76027464609167</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-9.078074372690276</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-0.8975363940023026</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-20.67009891230021</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>3.91716807237889</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-7.08647180022145</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-21.29206720697823</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-9.169314071904225</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-0.8734621068407225</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-22.24098930198742</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>3.342460393817063</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-8.234872820842156</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-22.66289515926215</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-9.221046858760158</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-0.9221834055421765</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-23.91644844435761</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2.729496408195834</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-9.459718934700767</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-24.13771951713222</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-9.368832987807707</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-1.179803438317182</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-25.72159833472906</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2.069085274636045</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-10.77937560208206</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-25.69271145036007</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-9.461047675454752</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-1.20174904469701</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-27.6195599098791</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1.374719138071153</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-12.16688234622554</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-27.59762309863462</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-9.493082299655814</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-1.496526640604795</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-29.64035629670235</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.6354140866547026</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-13.64418760465069</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-29.4429785209973</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-9.496885334402066</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-1.814411844376693</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-31.74004381116344</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-0.1327531547156238</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-15.17916630235079</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-31.36805546402801</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-9.57281638982858</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-2.062500816544137</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-33.94089183874778</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-0.937929804279454</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-16.78809849628456</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-33.65536051445826</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-9.600547645372098</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-2.491282674790541</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-36.21032156129586</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-1.768196954723041</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-18.44716740822826</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-35.64236433954386</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-9.620132735876487</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-2.89283529597644</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-38.54155282742909</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-2.621074098759133</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-20.15141640160543</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-37.84971691713169</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-9.646641321133474</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-3.44346178279572</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-40.93307992570214</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-3.496010374319309</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-21.89974472452916</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-40.12380335193355</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-9.628732017884948</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-4.073620815650451</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-43.32526944032927</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.371188993818691</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-23.64855730760375</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-42.53846720535552</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-9.678597664614971</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-4.720431892567716</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-45.78338348829236</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.270485995964311</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-25.44556408797179</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-44.79486768492043</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-9.533966372820984</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-5.291434787181211</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-48.1379821015185</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-6.131912045697502</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-27.16689580426003</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-47.12822505177168</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-9.48371263596275</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-5.961048901772976</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-50.64284772587913</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-7.048313035566856</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-28.9980803722083</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-49.5938093311729</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-9.321980113321667</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-6.61985408517902</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-51.11911717809053</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-7.222555435321321</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-29.34625764071838</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-51.00250810183757</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-7.179894195585863</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-29.26101045666171</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-50.77159157100851</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-7.095413760639194</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-29.09219869142131</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-50.44826555188796</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-6.977125465614097</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-28.85583087557057</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-50.05188957148955</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-6.832111961789813</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-28.56605981106638</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-49.59840120721547</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-6.666203985779691</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-28.23453668011409</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-49.11253535774745</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-6.488450759791824</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-27.87934395560776</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-48.60333533502732</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-6.302160764702236</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-27.50709275996048</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-48.09132679452875</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-6.114843277979089</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-27.1327883945285</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-47.57389403881883</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-5.925541350996702</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-26.75451865103724</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-47.0641039222368</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-5.739035471033328</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-26.38183606667073</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-46.5454298584739</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-5.549279413530961</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-26.00265886366205</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-46.0232801926311</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-5.358251812694914</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-25.62094081821012</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-45.47766600878965</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-5.158639756344912</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-25.22206901295742</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-44.91464724210262</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-4.952660261840601</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-24.81047356967461</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-44.32321828470153</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-4.736286945552188</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-24.37810882751123</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-43.71816507792404</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-4.514929219923274</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-23.93578406395376</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-43.10408112800651</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-4.290267611693912</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-23.48685736641855</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-42.5059291900053</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-4.071434703954003</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-23.04957778243458</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-41.936054305705</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-3.862946910039793</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-22.63297016738201</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-41.41474036735328</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-3.672225058738828</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-22.25186308136431</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-40.95288945417467</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-3.503257657895932</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-21.91422650051125</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-40.56174537939927</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-3.360158238182665</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-21.62828022594574</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-40.24706604636906</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-3.245033319114833</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-21.39823357877509</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-40.01031764141484</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-3.158419302562383</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-21.22515841601095</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-39.85127594184589</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-3.100234157020817</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-21.1088908194267</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-39.76115431544218</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-3.067263307470324</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-21.04300731258149</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-39.73127575892503</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-3.056332286459895</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-21.02116456338382</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-39.74276465117742</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-3.06053547889074</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-21.02956352977579</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-39.78017941726609</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-3.074223609841133</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-21.05691563266253</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-39.82361459560511</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-3.090114298761897</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-21.08866896406161</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-39.86726072572849</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-3.106082164047779</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-21.12057651197767</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-39.90447541721628</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-3.119697098032833</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-21.14778235012351</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-39.93993694030318</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-3.132670638227193</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-21.17370653272283</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-39.97496547562757</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-3.145485770557148</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-21.199314179177</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-40.02321965252019</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-3.163139482213242</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-21.23459044438079</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-40.09604901180441</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-3.189783984134038</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-21.28783242172194</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-40.21435626625864</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-3.233066499585645</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-21.37432106068365</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-40.39408260112716</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-3.298819085104533</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-21.50571018098791</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-40.65484124604173</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-3.394217208657648</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-21.69633805414919</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-41.00231204595527</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-3.521338832226874</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-21.95035693660989</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-41.43841739183181</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-3.680887259400719</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-22.2691721942438</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-41.95076969385782</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-3.868330510716178</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-22.64372786689082</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-42.5217282196956</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-4.077214753113669</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-23.06112767919393</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-43.12355265940501</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-4.297391239594075</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-23.50109204929514</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-43.72819860525131</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-4.51859996947773</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-23.94311908433374</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-44.30574025753338</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-4.729892637912653</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-24.36533149793425</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-44.83108539720902</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-4.922089297621573</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-24.7493855977889</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-45.28433801898388</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-5.08791102762411</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-25.08073638894684</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-45.65015459994762</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-5.221744425170678</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-25.3481669733445</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-45.92270806555506</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-5.321457664573982</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-25.547417462196</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-46.09942481243673</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-5.386109197252585</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-25.67660642013475</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-46.18795922463238</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-5.418499367082276</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-25.74132959241527</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-46.19513966504167</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-5.421126319456397</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-25.74657886069564</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-46.13760049048489</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-5.400075706598247</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-25.70451478848508</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-46.02532817939761</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-5.359001065302246</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-25.62243800102333</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-45.87832388959792</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-5.305219786427512</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-25.51497036512086</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-45.70634790151958</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-5.242302652599633</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-25.38924714373764</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-45.53029684165799</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-5.17789466042804</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-25.26054483697347</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-45.35727668679318</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-5.114595519889942</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-25.13405827639667</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-45.2070130223695</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-5.05962180414245</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-25.02420787135298</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-45.08410901296877</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-5.014657573415507</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-24.93435877000207</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-45.00530185897046</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-4.985826105080246</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-24.87674671974191</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-44.97452613903625</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-4.974566858301747</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-24.8542480983137</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-45.00805873486127</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-4.98683470361372</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-24.87876213667202</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-45.10670593925474</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-5.022924621921054</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-24.95087827599693</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-45.28066384207232</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-5.086566836013204</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-25.07805037817048</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-45.52381269962496</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-5.175522447675497</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-25.25580459833082</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-45.83859025177711</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-5.290683300048366</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-25.48592304869067</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-46.21230683399366</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-5.427406900126218</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-25.75912893705683</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-46.64093779731631</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-5.58422083667333</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-26.07248003970594</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-47.10938974572276</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-5.75560321545282</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-26.41494231409087</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-47.61301769156246</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-5.939854675333501</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-26.78312003725499</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-48.1377260750653</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-6.131818378838547</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-27.16670863586045</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-48.67784260060377</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-6.329419125894425</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-27.56156137240688</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-49.2217887750254</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-6.528420943727614</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-27.95921377767299</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-49.76700984600934</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-6.727889180381966</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-28.3577981973705</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-50.306812053069</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-6.925374934536697</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-28.7524211510726</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-50.84175341683321</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-7.121082357125773</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-29.14349058032882</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-51.36835044109357</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-7.313737016761506</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-29.52845987168519</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-51.8889207686584</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-7.504186819272886</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-29.90902334027917</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-52.40436393020157</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-7.692760856485007</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-30.28583858892678</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-52.91437681167901</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-7.879348234620851</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-30.65868402579716</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-53.42114015710584</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-8.064746775309908</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-31.02915388602541</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-53.91880878609079</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-8.246818028870726</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-31.39297504452841</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-54.40704402497234</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-8.425438092098412</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-31.74989991358067</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-54.87210960486267</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-8.595581573497517</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-32.08988657981011</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-55.30925229101808</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-8.755509509914951</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-32.40946018611226</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-55.69729425185856</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-8.897474026321225</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-32.6931386571236</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-56.0299712444813</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-9.01918335970076</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-32.93634251168475</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-56.28523389931174</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-9.112570784274885</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-33.12295253569285</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-56.46194017540637</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-9.177218486233182</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-33.25213383895206</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-56.5411113898605</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-9.206183145490476</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-33.31001203597954</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-56.53231048840128</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-9.202963350092856</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-33.30357812799684</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-56.42184269989119</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-9.162548890428914</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-33.22282053860453</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-56.23206985824129</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-9.093120806843521</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-33.08408690927713</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-55.95040528625832</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-8.990074284081565</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-32.87817573682267</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-55.6163858895936</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-8.867873834379896</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-32.6339905164183</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-55.20250854923123</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-8.71645748665091</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-32.33142506487297</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-54.77622342926717</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-8.560501773057947</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-32.01978889340233</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-54.25623666546014</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-8.370265466392455</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-31.63965203968833</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-31.72347254753697</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-0.1266905850340436</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-15.16705186318524</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-31.63394659139966</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-0.09393766047579737</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-15.10160382169547</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-31.68399663972256</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-0.112248388756008</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-15.13819296053893</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-31.86458037810585</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-0.1783146539477759</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-15.27020888655664</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-32.157887161142</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>-0.2856204605729671</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-15.48463110926867</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-32.52449710480979</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>-0.4197441085666059</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-15.75264168227982</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-32.93460461708723</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>-0.5697812708594266</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-16.052451197161</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-33.33767120788978</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>-0.7172425235519748</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-16.34711343922101</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-33.69909865563012</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>-0.8494701638908608</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-16.61133534330178</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-33.97166277158838</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>-0.9491872997075885</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-16.81059361810311</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-34.13503680857494</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>-1.008957423804224</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-16.93002837437254</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-34.16364645209052</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>-1.019424215069396</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-16.95094348342698</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-34.0677755353155</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>-0.9843499970443332</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-16.88085695199547</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-33.85705552923209</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>-0.9072584276275508</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-16.72680987675709</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-33.56773762029455</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>-0.8014119440641989</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-16.5153037245208</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-33.22712621925884</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>-0.6767998203501414</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-16.26629941260165</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-32.86879380158173</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>-0.5457044916953769</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-16.00434013340343</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-32.50971599453661</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>-0.4143364635600311</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-15.74183593654793</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-32.16316036896211</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>-0.2875496550252108</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-15.48848609322064</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-31.8321761352808</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>-0.1664596147344777</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-15.2465197318091</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-31.51715823541452</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>-0.05121083154368044</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-15.01622557500784</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-31.21491428721773</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.05936462233132121</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-14.79526982859529</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-30.92062756172436</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.1670289393009662</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-14.58013121795104</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-30.632971833525</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.2722673167611422</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-14.36984020463769</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-30.34543689249656</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.377461504432485</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-14.15963749290875</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-30.06063954927692</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.4816541464251121</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-13.95143610484842</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-29.77152217315129</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.5874272653873661</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-13.74007655232868</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-29.48127090531671</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.6936152167759119</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-13.52788806711931</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-29.18365118703047</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.8024989037049307</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-13.31031286869645</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-28.88398348341834</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.9121318427142366</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-13.09124048851354</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-28.57804879513175</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>1.024057547811797</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-12.8675866227963</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-28.27202286852085</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>1.136016632301007</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-12.64386605720909</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-27.96386627980869</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>1.248755216033486</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-12.41858786892091</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-27.66187735157217</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>1.35923737127332</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-12.19781855511027</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-27.36402096555484</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>1.468207642704489</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-11.98007034050136</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-27.07921394095058</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>1.572403826615835</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-11.77186187485494</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-26.80239132992268</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>1.673678925885459</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-11.56949042289219</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-26.53473502223582</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>1.771600548076919</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-11.3738200063303</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-26.25857263545777</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>1.872634105385079</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-11.17193121197839</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-25.96477064803941</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>1.98012108172318</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-10.95714696959797</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-25.63231656417366</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>2.10174886429872</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-10.71410607271085</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-25.25968332469463</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>2.238076125208763</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-10.44169216315722</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-24.83340912642641</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>2.394027843117173</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-10.13006397600345</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-24.36369183424145</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>2.565873145847502</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-9.786676670759448</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-23.84366656848779</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>2.756123538387169</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-9.406511670158121</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-23.29039852040142</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>2.958535748446883</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-9.002044499647432</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-22.70259182660726</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>3.173583865521944</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-8.572327816986137</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-22.10224924111141</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>3.393218218063131</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-8.133446757918239</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-21.49559882835013</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>3.615160278887646</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-7.689954355298258</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-20.90726368124414</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>3.830401729742114</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-7.259851346304686</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-20.34689116219214</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>4.035413098879297</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-6.850190445052847</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-19.83443323427018</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>4.222894993255946</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-6.475557554486926</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-19.37717629528418</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>4.390181696157767</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-6.141279403150103</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-18.98663137611613</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>4.533061915772502</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-5.855771141902083</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-18.66096025712829</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>4.652208161746672</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-5.617688938402965</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-18.40071695912028</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>4.747417746477304</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-5.427437810123027</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-18.19904457735277</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>4.821199257343071</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-5.280005009863217</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-18.04900299028705</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>4.876091726452543</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-5.170316954698444</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-17.94152950867503</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>4.915410723837525</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-5.091748356416112</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-17.86587874579017</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>4.943087431648847</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-5.036443789096809</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-17.81245262512554</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>4.962633290470893</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-4.997386569126618</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-17.76948681062373</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>4.978352263399851</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-4.965976366639159</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-17.73198005695909</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>4.992074047854391</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-4.938557016141242</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-17.69222665911464</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>5.006617763405848</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-4.909495254125627</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-17.64992068660886</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>5.02209533422028</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-4.87856742980196</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-17.60242533256673</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>5.039471431778215</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-4.843845902816496</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-17.55263424334623</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>5.057687420294557</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-4.807446076288805</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-17.49967239390833</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>5.07706342624801</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-4.768728262272154</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-17.44682411122242</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>5.096397883991076</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-4.730093471345314</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-17.39206598952467</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>5.116431053211485</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-4.690062490662134</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-17.33614728095712</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>5.136888821239102</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-4.649183061764769</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-17.27340116016856</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>5.159844386855831</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-4.60331244620392</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-17.20199471859809</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>5.185968316659421</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-4.551110694307822</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-17.11365101837277</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>5.218288714826834</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-4.486526942207611</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-17.00514594347014</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>5.257985118929152</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-4.407204196598657</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-16.86736550833001</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>5.308391865670017</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-4.306479669047123</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-16.70102401865138</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>5.369247627478297</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-4.184875553462367</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-16.50331553528311</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>5.441578952600978</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-4.040340565167792</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-16.28426750295059</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>5.521717316793545</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-3.880205277851081</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-16.05152735159069</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>5.606864920327365</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-3.710060352962754</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-15.82171224356588</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>5.690942401543398</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-3.542053783986099</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-15.61075420342163</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>5.768121055331837</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-3.387832693704912</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-15.44006613649618</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>5.830567005313404</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-3.263051008393312</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-15.33106284339385</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>5.870445681728827</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-3.183364039861626</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-15.30384426749832</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>5.880403553181456</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-3.163465872208767</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-15.38009937471102</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>5.852505746986705</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-3.219212246064957</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-15.57119775710455</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>5.782592716489285</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-3.358914913304136</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-15.89438655256794</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>5.664354624514615</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-3.595182411660429</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-16.34969294827292</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>5.497781524680411</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-3.928034616343435</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-16.95012405517501</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>5.278114786727602</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-4.366980389075596</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-17.68371687327235</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>5.009731054631378</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-4.903274166511424</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-18.55797315696752</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>4.689885823818941</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-5.542400113853632</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-19.54898873100698</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>4.327324397691537</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-6.266883059417091</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-20.65098163819771</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>3.924162095826996</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-7.072496097502201</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-21.83889878457297</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>3.48956455165776</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-7.94092413822745</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-23.08463650955993</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>3.033813443417358</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-8.851621971884445</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-24.37880180036872</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>2.560345189464831</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-9.797722826898674</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-25.66373270083531</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>2.090255322108426</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-10.73707287144044</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-26.97808475547421</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>1.60940177364099</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-11.69793128072945</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-28.20580486102507</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>1.160242381988398</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-12.59545731533196</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-29.51299250918197</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.6820099199090223</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-13.55107817795948</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>